--- a/doc/pe_spec.xlsx
+++ b/doc/pe_spec.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ECG检测-硕士毕设\spec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\conv_npu\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F40CDF1-0222-404E-8D77-71B5B636C910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62FB057-B527-4341-AC2A-5E082615E338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2844" yWindow="3312" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1992" yWindow="4440" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>flush</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,18 @@
   </si>
   <si>
     <t>result_r加本周期的weight（偏置），并将out_valid_r拉高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calc_relu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算当前result_r的RELU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算当前result_r的RELU，并将out_valid_r拉高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,20 +438,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="51.77734375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="51.77734375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -450,13 +462,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -469,11 +484,14 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -486,11 +504,14 @@
       <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -501,13 +522,16 @@
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -515,98 +539,276 @@
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
